--- a/Code/Results/Cases/Case_3_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.055105029929138</v>
+        <v>0.4526314923384973</v>
       </c>
       <c r="C2">
-        <v>0.2299322061855662</v>
+        <v>0.09084829728251975</v>
       </c>
       <c r="D2">
-        <v>0.3032348631399202</v>
+        <v>0.2525842607957429</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.08215935361406</v>
+        <v>1.706025749476368</v>
       </c>
       <c r="G2">
-        <v>0.6600678109753915</v>
+        <v>0.9920548021673739</v>
       </c>
       <c r="H2">
-        <v>0.4773525452749112</v>
+        <v>1.012311489806052</v>
       </c>
       <c r="I2">
-        <v>0.4035894219222769</v>
+        <v>0.7888807512141192</v>
       </c>
       <c r="J2">
-        <v>0.4339483353916478</v>
+        <v>0.3509068663016137</v>
       </c>
       <c r="K2">
-        <v>1.243955569150017</v>
+        <v>0.5227810769768269</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8166580945249979</v>
+        <v>1.710131339581244</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9152833770079383</v>
+        <v>0.4137551630406051</v>
       </c>
       <c r="C3">
-        <v>0.1990695916750269</v>
+        <v>0.08244525588877138</v>
       </c>
       <c r="D3">
-        <v>0.2662831127462368</v>
+        <v>0.2438841384559822</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.019779117552645</v>
+        <v>1.701859145009067</v>
       </c>
       <c r="G3">
-        <v>0.6270392875328952</v>
+        <v>0.9910174178869084</v>
       </c>
       <c r="H3">
-        <v>0.469209929476591</v>
+        <v>1.016545079673918</v>
       </c>
       <c r="I3">
-        <v>0.399037759499933</v>
+        <v>0.7931246114590422</v>
       </c>
       <c r="J3">
-        <v>0.3831763987870715</v>
+        <v>0.3397061098324201</v>
       </c>
       <c r="K3">
-        <v>1.078619291437917</v>
+        <v>0.4770436605348038</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8616798258869895</v>
+        <v>1.728768688687948</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.82987782790903</v>
+        <v>0.3900267168473874</v>
       </c>
       <c r="C4">
-        <v>0.1802682328536065</v>
+        <v>0.07731577277471047</v>
       </c>
       <c r="D4">
-        <v>0.2438320971403556</v>
+        <v>0.2386586278824581</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9834572547860603</v>
+        <v>1.700232263775916</v>
       </c>
       <c r="G4">
-        <v>0.6081903392208687</v>
+        <v>0.9909909058888502</v>
       </c>
       <c r="H4">
-        <v>0.4650479058509092</v>
+        <v>1.01959135829604</v>
       </c>
       <c r="I4">
-        <v>0.3970817595468219</v>
+        <v>0.7961333070651975</v>
       </c>
       <c r="J4">
-        <v>0.352565557325633</v>
+        <v>0.3330371592171559</v>
       </c>
       <c r="K4">
-        <v>0.9776901578541413</v>
+        <v>0.4491267612859531</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8905336064623963</v>
+        <v>1.74079249407677</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7951679519926813</v>
+        <v>0.3803932037354798</v>
       </c>
       <c r="C5">
-        <v>0.1726381241898736</v>
+        <v>0.07523302389266462</v>
       </c>
       <c r="D5">
-        <v>0.2347366564184483</v>
+        <v>0.2365585387789082</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9691236393216229</v>
+        <v>1.699803434864336</v>
       </c>
       <c r="G5">
-        <v>0.6008472417431818</v>
+        <v>0.9911334231698845</v>
       </c>
       <c r="H5">
-        <v>0.4635526703319783</v>
+        <v>1.020945124722274</v>
       </c>
       <c r="I5">
-        <v>0.3964854328803824</v>
+        <v>0.7974606442230794</v>
       </c>
       <c r="J5">
-        <v>0.34021961696088</v>
+        <v>0.3303718271877329</v>
       </c>
       <c r="K5">
-        <v>0.9366847797142555</v>
+        <v>0.4377925004981762</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9025876481684403</v>
+        <v>1.74583816882884</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7894095368008038</v>
+        <v>0.3787957527755452</v>
       </c>
       <c r="C6">
-        <v>0.1713728982866769</v>
+        <v>0.0748876417401334</v>
       </c>
       <c r="D6">
-        <v>0.2332294242490178</v>
+        <v>0.236211595529582</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9667709640641107</v>
+        <v>1.69974636733491</v>
       </c>
       <c r="G6">
-        <v>0.5996477272257721</v>
+        <v>0.991166343023977</v>
       </c>
       <c r="H6">
-        <v>0.46331624092997</v>
+        <v>1.021176704954968</v>
       </c>
       <c r="I6">
-        <v>0.3963982524225536</v>
+        <v>0.7976871623607842</v>
       </c>
       <c r="J6">
-        <v>0.3381769497548532</v>
+        <v>0.3299324086623443</v>
       </c>
       <c r="K6">
-        <v>0.9298826922149885</v>
+        <v>0.4359130082391687</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.904606846085013</v>
+        <v>1.746684807874434</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8294093630851762</v>
+        <v>0.389896649580237</v>
       </c>
       <c r="C7">
-        <v>0.1801652099093616</v>
+        <v>0.07728765348547029</v>
       </c>
       <c r="D7">
-        <v>0.2437092240297147</v>
+        <v>0.2386301864082014</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9832620908138239</v>
+        <v>1.700225532527455</v>
       </c>
       <c r="G7">
-        <v>0.6080899669576638</v>
+        <v>0.9909922073766211</v>
       </c>
       <c r="H7">
-        <v>0.4650269399964344</v>
+        <v>1.019609160600979</v>
       </c>
       <c r="I7">
-        <v>0.3970729174170664</v>
+        <v>0.796150798038127</v>
       </c>
       <c r="J7">
-        <v>0.3523985536534155</v>
+        <v>0.3330010018738818</v>
       </c>
       <c r="K7">
-        <v>0.977136673086477</v>
+        <v>0.4489737325515648</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8906949842241652</v>
+        <v>1.740859951257896</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.006790573714369</v>
+        <v>0.4391977174365991</v>
       </c>
       <c r="C8">
-        <v>0.2192564107780299</v>
+        <v>0.0879447008080092</v>
       </c>
       <c r="D8">
-        <v>0.2904407543190786</v>
+        <v>0.2495603440777927</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.060221116155063</v>
+        <v>1.704395732730191</v>
       </c>
       <c r="G8">
-        <v>0.6483691463244412</v>
+        <v>0.9915703019076574</v>
       </c>
       <c r="H8">
-        <v>0.4743650616549218</v>
+        <v>1.013678502462213</v>
       </c>
       <c r="I8">
-        <v>0.4018396428910158</v>
+        <v>0.7902603680555806</v>
       </c>
       <c r="J8">
-        <v>0.4163169079919271</v>
+        <v>0.3470015515524096</v>
       </c>
       <c r="K8">
-        <v>1.186810765783576</v>
+        <v>0.5069765422340708</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8319251802020311</v>
+        <v>1.716436996028463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359074319126677</v>
+        <v>0.5369907806844481</v>
       </c>
       <c r="C9">
-        <v>0.2973718585172378</v>
+        <v>0.1090820720106365</v>
       </c>
       <c r="D9">
-        <v>0.3842680089217083</v>
+        <v>0.2719158091492488</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.228296782168286</v>
+        <v>1.719970313126069</v>
       </c>
       <c r="G9">
-        <v>0.7397576607213949</v>
+        <v>0.9975572448599337</v>
       </c>
       <c r="H9">
-        <v>0.4997950216916252</v>
+        <v>1.005593605247668</v>
       </c>
       <c r="I9">
-        <v>0.4183300204500142</v>
+        <v>0.7819094259411017</v>
       </c>
       <c r="J9">
-        <v>0.546783254180724</v>
+        <v>0.3761150330427512</v>
       </c>
       <c r="K9">
-        <v>1.603812794986652</v>
+        <v>0.6220283942263336</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7266822701516062</v>
+        <v>1.673151201582789</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.62197614697979</v>
+        <v>0.6095110244877731</v>
       </c>
       <c r="C10">
-        <v>0.3560769457207869</v>
+        <v>0.124760056990624</v>
       </c>
       <c r="D10">
-        <v>0.4549929876684473</v>
+        <v>0.2889012784538068</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.36441415878717</v>
+        <v>1.735935168443149</v>
       </c>
       <c r="G10">
-        <v>0.8160293472457028</v>
+        <v>1.00493018747693</v>
       </c>
       <c r="H10">
-        <v>0.5235235420194897</v>
+        <v>1.001815293049859</v>
       </c>
       <c r="I10">
-        <v>0.4355269664881476</v>
+        <v>0.777729667884401</v>
       </c>
       <c r="J10">
-        <v>0.6467436597173872</v>
+        <v>0.398525646079861</v>
       </c>
       <c r="K10">
-        <v>1.915507778633668</v>
+        <v>0.7073514779565073</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6560527164545871</v>
+        <v>1.644160155820639</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.742795505627015</v>
+        <v>0.6426471350439442</v>
       </c>
       <c r="C11">
-        <v>0.3831724790768476</v>
+        <v>0.1319252756347282</v>
       </c>
       <c r="D11">
-        <v>0.4876670854789324</v>
+        <v>0.2967501561597032</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.429605960171187</v>
+        <v>1.744183025649988</v>
       </c>
       <c r="G11">
-        <v>0.8530888528313767</v>
+        <v>1.008933703583025</v>
       </c>
       <c r="H11">
-        <v>0.5355846474288199</v>
+        <v>1.000566019539903</v>
       </c>
       <c r="I11">
-        <v>0.4446292119588122</v>
+        <v>0.7762539363432097</v>
       </c>
       <c r="J11">
-        <v>0.6933492445328824</v>
+        <v>0.4089447971371243</v>
       </c>
       <c r="K11">
-        <v>2.058891434109086</v>
+        <v>0.7463395606418146</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6255182522760876</v>
+        <v>1.631582240852456</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.788752423780124</v>
+        <v>0.6552156903179878</v>
       </c>
       <c r="C12">
-        <v>0.3934983887668579</v>
+        <v>0.1346433537388805</v>
       </c>
       <c r="D12">
-        <v>0.500121903158032</v>
+        <v>0.299739831242789</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.454810482424975</v>
+        <v>1.747448144139881</v>
       </c>
       <c r="G12">
-        <v>0.8674965984475875</v>
+        <v>1.010543378545066</v>
       </c>
       <c r="H12">
-        <v>0.5403496019224292</v>
+        <v>1.000160471472554</v>
       </c>
       <c r="I12">
-        <v>0.4482759120478335</v>
+        <v>0.7757564070041241</v>
       </c>
       <c r="J12">
-        <v>0.7111822102922645</v>
+        <v>0.4129226617303061</v>
       </c>
       <c r="K12">
-        <v>2.113454582825455</v>
+        <v>0.7611281652625337</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6141983169045808</v>
+        <v>1.626907150874091</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.778845158689137</v>
+        <v>0.6525079160300606</v>
       </c>
       <c r="C13">
-        <v>0.3912714528356389</v>
+        <v>0.1340577552423667</v>
       </c>
       <c r="D13">
-        <v>0.4974357300896202</v>
+        <v>0.2990951753124591</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.449358410952755</v>
+        <v>1.746738632106826</v>
       </c>
       <c r="G13">
-        <v>0.8643764168464827</v>
+        <v>1.010192538352698</v>
       </c>
       <c r="H13">
-        <v>0.5393143312615081</v>
+        <v>1.000244810134063</v>
       </c>
       <c r="I13">
-        <v>0.4474813727825264</v>
+        <v>0.7758608311778659</v>
       </c>
       <c r="J13">
-        <v>0.7073329963320703</v>
+        <v>0.4120645169627863</v>
       </c>
       <c r="K13">
-        <v>2.101690924460286</v>
+        <v>0.7579420838221154</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6166252434440125</v>
+        <v>1.627910103810162</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.746572119195434</v>
+        <v>0.6436807465349546</v>
       </c>
       <c r="C14">
-        <v>0.3840206305592346</v>
+        <v>0.132148798121932</v>
       </c>
       <c r="D14">
-        <v>0.4886900513607486</v>
+        <v>0.2969957687683973</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.431668888249419</v>
+        <v>1.74444880554374</v>
       </c>
       <c r="G14">
-        <v>0.8542664822258388</v>
+        <v>1.009064254705777</v>
       </c>
       <c r="H14">
-        <v>0.5359726079660447</v>
+        <v>1.000531301492373</v>
       </c>
       <c r="I14">
-        <v>0.4449251264721923</v>
+        <v>0.7762117752885871</v>
       </c>
       <c r="J14">
-        <v>0.6948125469865971</v>
+        <v>0.4092714094713727</v>
       </c>
       <c r="K14">
-        <v>2.063374799849811</v>
+        <v>0.7475557359379934</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6245820075046922</v>
+        <v>1.631195856061504</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.726831589763094</v>
+        <v>0.6382765248334579</v>
       </c>
       <c r="C15">
-        <v>0.3795881021586069</v>
+        <v>0.1309801269879927</v>
       </c>
       <c r="D15">
-        <v>0.4833440346337454</v>
+        <v>0.2957120950044896</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.420902452011845</v>
+        <v>1.743064695797997</v>
       </c>
       <c r="G15">
-        <v>0.8481236429269501</v>
+        <v>1.008385348632629</v>
       </c>
       <c r="H15">
-        <v>0.5339519313312451</v>
+        <v>1.000715579782337</v>
       </c>
       <c r="I15">
-        <v>0.4433858765028091</v>
+        <v>0.7764347241618168</v>
       </c>
       <c r="J15">
-        <v>0.6871681002413936</v>
+        <v>0.407564766927905</v>
       </c>
       <c r="K15">
-        <v>2.039941002653308</v>
+        <v>0.7411969985524252</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6294877921370059</v>
+        <v>1.633219924699832</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.614107392209633</v>
+        <v>0.6073484106397871</v>
       </c>
       <c r="C16">
-        <v>0.3543148185394784</v>
+        <v>0.1242924606056022</v>
       </c>
       <c r="D16">
-        <v>0.4528685589573058</v>
+        <v>0.2883907857753911</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.360223510799131</v>
+        <v>1.735415991543292</v>
       </c>
       <c r="G16">
-        <v>0.8136578416343099</v>
+        <v>1.004681637999596</v>
       </c>
       <c r="H16">
-        <v>0.5227621091653987</v>
+        <v>1.001906384478019</v>
       </c>
       <c r="I16">
-        <v>0.4349591870981229</v>
+        <v>0.7778346833615331</v>
       </c>
       <c r="J16">
-        <v>0.6437224722163393</v>
+        <v>0.3978492536252816</v>
       </c>
       <c r="K16">
-        <v>1.906172525853293</v>
+        <v>0.7048069872792837</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.658081437633566</v>
+        <v>1.64499444389935</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.545288294473011</v>
+        <v>0.5884121925854231</v>
       </c>
       <c r="C17">
-        <v>0.3389167996975573</v>
+        <v>0.1201982946547844</v>
       </c>
       <c r="D17">
-        <v>0.4343078729284002</v>
+        <v>0.2839306141597149</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.323869312465163</v>
+        <v>1.730976233691976</v>
       </c>
       <c r="G17">
-        <v>0.7931429715996501</v>
+        <v>1.002576053803978</v>
       </c>
       <c r="H17">
-        <v>0.5162326244030879</v>
+        <v>1.002757162339023</v>
       </c>
       <c r="I17">
-        <v>0.4301282638763411</v>
+        <v>0.7788025978731454</v>
       </c>
       <c r="J17">
-        <v>0.6173749259419594</v>
+        <v>0.3919466467679342</v>
       </c>
       <c r="K17">
-        <v>1.824543657035036</v>
+        <v>0.6825272335345289</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6760404997742508</v>
+        <v>1.652374129511765</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.50581868894011</v>
+        <v>0.5775343743756025</v>
       </c>
       <c r="C18">
-        <v>0.3300963995162078</v>
+        <v>0.1178465666740465</v>
       </c>
       <c r="D18">
-        <v>0.4236787750569704</v>
+        <v>0.2813767392240436</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.303264191341356</v>
+        <v>1.728515341108874</v>
       </c>
       <c r="G18">
-        <v>0.7815635758755946</v>
+        <v>1.00142610032303</v>
       </c>
       <c r="H18">
-        <v>0.5125952814261581</v>
+        <v>1.003290698037816</v>
       </c>
       <c r="I18">
-        <v>0.4274690287631842</v>
+        <v>0.7793993766120408</v>
       </c>
       <c r="J18">
-        <v>0.6023257737140426</v>
+        <v>0.3885727448638079</v>
       </c>
       <c r="K18">
-        <v>1.777740287440679</v>
+        <v>0.6697289263527182</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6865193672448235</v>
+        <v>1.656676161223302</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.49247356953947</v>
+        <v>0.5738537134992612</v>
       </c>
       <c r="C19">
-        <v>0.3271158994780592</v>
+        <v>0.1170508496016396</v>
       </c>
       <c r="D19">
-        <v>0.420087648903575</v>
+        <v>0.2805140183353956</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.296338629175764</v>
+        <v>1.727698048897707</v>
       </c>
       <c r="G19">
-        <v>0.7776798139587697</v>
+        <v>1.001047236780579</v>
       </c>
       <c r="H19">
-        <v>0.5113835965079403</v>
+        <v>1.00347893354764</v>
       </c>
       <c r="I19">
-        <v>0.4265886975035258</v>
+        <v>0.7796083132836316</v>
       </c>
       <c r="J19">
-        <v>0.5972478423267802</v>
+        <v>0.3874340247659944</v>
       </c>
       <c r="K19">
-        <v>1.761917681867004</v>
+        <v>0.6653984709370206</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6900925815441319</v>
+        <v>1.658142615018644</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.552602272680502</v>
+        <v>0.5904265606893375</v>
       </c>
       <c r="C20">
-        <v>0.3405521407401579</v>
+        <v>0.1206338019660222</v>
       </c>
       <c r="D20">
-        <v>0.4362788067583665</v>
+        <v>0.2844042176635071</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.327707397042417</v>
+        <v>1.73143925437445</v>
       </c>
       <c r="G20">
-        <v>0.7953037836329742</v>
+        <v>1.002793869190043</v>
       </c>
       <c r="H20">
-        <v>0.5169153531995505</v>
+        <v>1.002662021922944</v>
       </c>
       <c r="I20">
-        <v>0.4306300568705694</v>
+        <v>0.7786954150286505</v>
       </c>
       <c r="J20">
-        <v>0.6201686233570314</v>
+        <v>0.3925728027596591</v>
       </c>
       <c r="K20">
-        <v>1.833217669816179</v>
+        <v>0.6848972549467192</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6741131823734197</v>
+        <v>1.65158260440851</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.75604567755002</v>
+        <v>0.6462729435519634</v>
       </c>
       <c r="C21">
-        <v>0.3861485191287954</v>
+        <v>0.1327093758707463</v>
       </c>
       <c r="D21">
-        <v>0.4912565656188974</v>
+        <v>0.2976119417413372</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.436850279437039</v>
+        <v>1.745117532657247</v>
       </c>
       <c r="G21">
-        <v>0.8572255741128174</v>
+        <v>1.009393116034573</v>
       </c>
       <c r="H21">
-        <v>0.5369486582444551</v>
+        <v>1.000445319339619</v>
       </c>
       <c r="I21">
-        <v>0.4456703999775229</v>
+        <v>0.7761070301719357</v>
       </c>
       <c r="J21">
-        <v>0.6984849200274397</v>
+        <v>0.4100909339969974</v>
       </c>
       <c r="K21">
-        <v>2.074621613192818</v>
+        <v>0.750605791763121</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6222382110701723</v>
+        <v>1.630228364447747</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.890219433537453</v>
+        <v>0.6828918386190139</v>
       </c>
       <c r="C22">
-        <v>0.4163346329266062</v>
+        <v>0.1406292317894895</v>
       </c>
       <c r="D22">
-        <v>0.5276699348300156</v>
+        <v>0.3063457748612279</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.511224534354838</v>
+        <v>1.754883861039957</v>
       </c>
       <c r="G22">
-        <v>0.899893706293085</v>
+        <v>1.014251961205588</v>
       </c>
       <c r="H22">
-        <v>0.5512019401612633</v>
+        <v>0.9993901677036519</v>
       </c>
       <c r="I22">
-        <v>0.4566735261642521</v>
+        <v>0.7747727053041444</v>
       </c>
       <c r="J22">
-        <v>0.7507555855331702</v>
+        <v>0.421728692243093</v>
       </c>
       <c r="K22">
-        <v>2.233968567493946</v>
+        <v>0.7936937014990519</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.589757200727405</v>
+        <v>1.616784511483242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.818487187157956</v>
+        <v>0.663336794231725</v>
       </c>
       <c r="C23">
-        <v>0.4001851007919583</v>
+        <v>0.1363997186676045</v>
       </c>
       <c r="D23">
-        <v>0.5081878487693245</v>
+        <v>0.3016750743474859</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.471234438417284</v>
+        <v>1.749595690546073</v>
       </c>
       <c r="G23">
-        <v>0.8769076481837885</v>
+        <v>1.011608682379702</v>
       </c>
       <c r="H23">
-        <v>0.5434830549195908</v>
+        <v>0.9999173043271128</v>
       </c>
       <c r="I23">
-        <v>0.4506879766560701</v>
+        <v>0.7754521340335216</v>
       </c>
       <c r="J23">
-        <v>0.7227507331927399</v>
+        <v>0.4155001131662175</v>
       </c>
       <c r="K23">
-        <v>2.148764541607875</v>
+        <v>0.7706838618740903</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6069580648553021</v>
+        <v>1.623912819387359</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.549295328131336</v>
+        <v>0.589515837223729</v>
       </c>
       <c r="C24">
-        <v>0.3398127036822416</v>
+        <v>0.1204369026862935</v>
       </c>
       <c r="D24">
-        <v>0.4353876184572698</v>
+        <v>0.2841900693153718</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.325971282460728</v>
+        <v>1.731229637452302</v>
       </c>
       <c r="G24">
-        <v>0.7943262137796978</v>
+        <v>1.002695206180732</v>
       </c>
       <c r="H24">
-        <v>0.5166063296559855</v>
+        <v>1.002704896559379</v>
       </c>
       <c r="I24">
-        <v>0.4304028295066615</v>
+        <v>0.7787437468268905</v>
       </c>
       <c r="J24">
-        <v>0.6189052878547727</v>
+        <v>0.3922896566396616</v>
       </c>
       <c r="K24">
-        <v>1.829295758523415</v>
+        <v>0.683825735158365</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6749840440092427</v>
+        <v>1.651940268030682</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.263161399343488</v>
+        <v>0.5104166856908137</v>
       </c>
       <c r="C25">
-        <v>0.276041665327881</v>
+        <v>0.1033379956220983</v>
       </c>
       <c r="D25">
-        <v>0.3586060106502202</v>
+        <v>0.2657695021108566</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.180776423442325</v>
+        <v>1.714963767172222</v>
       </c>
       <c r="G25">
-        <v>0.7135521199793402</v>
+        <v>0.9954164263711931</v>
       </c>
       <c r="H25">
-        <v>0.4920838438704749</v>
+        <v>1.0074012122315</v>
       </c>
       <c r="I25">
-        <v>0.4130324110595112</v>
+        <v>0.7838254867748802</v>
       </c>
       <c r="J25">
-        <v>0.5108432341747289</v>
+        <v>0.3680604934990583</v>
       </c>
       <c r="K25">
-        <v>1.490203863649839</v>
+        <v>0.5907640706604411</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7540237029106258</v>
+        <v>1.684367678305129</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4526314923384973</v>
+        <v>1.055105029929109</v>
       </c>
       <c r="C2">
-        <v>0.09084829728251975</v>
+        <v>0.2299322061855662</v>
       </c>
       <c r="D2">
-        <v>0.2525842607957429</v>
+        <v>0.3032348631397923</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.706025749476368</v>
+        <v>1.082159353614074</v>
       </c>
       <c r="G2">
-        <v>0.9920548021673739</v>
+        <v>0.6600678109753488</v>
       </c>
       <c r="H2">
-        <v>1.012311489806052</v>
+        <v>0.4773525452750249</v>
       </c>
       <c r="I2">
-        <v>0.7888807512141192</v>
+        <v>0.4035894219222556</v>
       </c>
       <c r="J2">
-        <v>0.3509068663016137</v>
+        <v>0.4339483353917473</v>
       </c>
       <c r="K2">
-        <v>0.5227810769768269</v>
+        <v>1.243955569149875</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.710131339581244</v>
+        <v>0.8166580945249358</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4137551630406051</v>
+        <v>0.9152833770079383</v>
       </c>
       <c r="C3">
-        <v>0.08244525588877138</v>
+        <v>0.1990695916749416</v>
       </c>
       <c r="D3">
-        <v>0.2438841384559822</v>
+        <v>0.2662831127464642</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.701859145009067</v>
+        <v>1.019779117552645</v>
       </c>
       <c r="G3">
-        <v>0.9910174178869084</v>
+        <v>0.6270392875328525</v>
       </c>
       <c r="H3">
-        <v>1.016545079673918</v>
+        <v>0.4692099294767189</v>
       </c>
       <c r="I3">
-        <v>0.7931246114590422</v>
+        <v>0.3990377594999472</v>
       </c>
       <c r="J3">
-        <v>0.3397061098324201</v>
+        <v>0.3831763987870858</v>
       </c>
       <c r="K3">
-        <v>0.4770436605348038</v>
+        <v>1.078619291437946</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.728768688687948</v>
+        <v>0.861679825886986</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3900267168473874</v>
+        <v>0.8298778279090016</v>
       </c>
       <c r="C4">
-        <v>0.07731577277471047</v>
+        <v>0.1802682328536065</v>
       </c>
       <c r="D4">
-        <v>0.2386586278824581</v>
+        <v>0.2438320971403414</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.700232263775916</v>
+        <v>0.9834572547860887</v>
       </c>
       <c r="G4">
-        <v>0.9909909058888502</v>
+        <v>0.6081903392208972</v>
       </c>
       <c r="H4">
-        <v>1.01959135829604</v>
+        <v>0.4650479058507955</v>
       </c>
       <c r="I4">
-        <v>0.7961333070651975</v>
+        <v>0.3970817595467935</v>
       </c>
       <c r="J4">
-        <v>0.3330371592171559</v>
+        <v>0.352565557325633</v>
       </c>
       <c r="K4">
-        <v>0.4491267612859531</v>
+        <v>0.9776901578540844</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.74079249407677</v>
+        <v>0.8905336064623928</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3803932037354798</v>
+        <v>0.7951679519926245</v>
       </c>
       <c r="C5">
-        <v>0.07523302389266462</v>
+        <v>0.1726381241897599</v>
       </c>
       <c r="D5">
-        <v>0.2365585387789082</v>
+        <v>0.2347366564184483</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.699803434864336</v>
+        <v>0.9691236393216229</v>
       </c>
       <c r="G5">
-        <v>0.9911334231698845</v>
+        <v>0.6008472417432529</v>
       </c>
       <c r="H5">
-        <v>1.020945124722274</v>
+        <v>0.4635526703318646</v>
       </c>
       <c r="I5">
-        <v>0.7974606442230794</v>
+        <v>0.3964854328803753</v>
       </c>
       <c r="J5">
-        <v>0.3303718271877329</v>
+        <v>0.3402196169608374</v>
       </c>
       <c r="K5">
-        <v>0.4377925004981762</v>
+        <v>0.936684779714227</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.74583816882884</v>
+        <v>0.9025876481684367</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3787957527755452</v>
+        <v>0.789409536800747</v>
       </c>
       <c r="C6">
-        <v>0.0748876417401334</v>
+        <v>0.1713728982869043</v>
       </c>
       <c r="D6">
-        <v>0.236211595529582</v>
+        <v>0.2332294242490036</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.69974636733491</v>
+        <v>0.9667709640641107</v>
       </c>
       <c r="G6">
-        <v>0.991166343023977</v>
+        <v>0.599647727225701</v>
       </c>
       <c r="H6">
-        <v>1.021176704954968</v>
+        <v>0.46331624092997</v>
       </c>
       <c r="I6">
-        <v>0.7976871623607842</v>
+        <v>0.3963982524225713</v>
       </c>
       <c r="J6">
-        <v>0.3299324086623443</v>
+        <v>0.3381769497549101</v>
       </c>
       <c r="K6">
-        <v>0.4359130082391687</v>
+        <v>0.929882692214818</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.746684807874434</v>
+        <v>0.9046068460850005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.389896649580237</v>
+        <v>0.8294093630851478</v>
       </c>
       <c r="C7">
-        <v>0.07728765348547029</v>
+        <v>0.1801652099093616</v>
       </c>
       <c r="D7">
-        <v>0.2386301864082014</v>
+        <v>0.2437092240296153</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.700225532527455</v>
+        <v>0.9832620908138523</v>
       </c>
       <c r="G7">
-        <v>0.9909922073766211</v>
+        <v>0.6080899669576496</v>
       </c>
       <c r="H7">
-        <v>1.019609160600979</v>
+        <v>0.4650269399964344</v>
       </c>
       <c r="I7">
-        <v>0.796150798038127</v>
+        <v>0.39707291741707</v>
       </c>
       <c r="J7">
-        <v>0.3330010018738818</v>
+        <v>0.3523985536533871</v>
       </c>
       <c r="K7">
-        <v>0.4489737325515648</v>
+        <v>0.9771366730865338</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.740859951257896</v>
+        <v>0.8906949842242327</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4391977174365991</v>
+        <v>1.006790573714483</v>
       </c>
       <c r="C8">
-        <v>0.0879447008080092</v>
+        <v>0.2192564107777741</v>
       </c>
       <c r="D8">
-        <v>0.2495603440777927</v>
+        <v>0.2904407543190644</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.704395732730191</v>
+        <v>1.060221116155105</v>
       </c>
       <c r="G8">
-        <v>0.9915703019076574</v>
+        <v>0.648369146324498</v>
       </c>
       <c r="H8">
-        <v>1.013678502462213</v>
+        <v>0.474365061654936</v>
       </c>
       <c r="I8">
-        <v>0.7902603680555806</v>
+        <v>0.4018396428910229</v>
       </c>
       <c r="J8">
-        <v>0.3470015515524096</v>
+        <v>0.416316907991984</v>
       </c>
       <c r="K8">
-        <v>0.5069765422340708</v>
+        <v>1.186810765783576</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.716436996028463</v>
+        <v>0.8319251802020968</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5369907806844481</v>
+        <v>1.35907431912679</v>
       </c>
       <c r="C9">
-        <v>0.1090820720106365</v>
+        <v>0.2973718585175789</v>
       </c>
       <c r="D9">
-        <v>0.2719158091492488</v>
+        <v>0.3842680089215378</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.719970313126069</v>
+        <v>1.228296782168286</v>
       </c>
       <c r="G9">
-        <v>0.9975572448599337</v>
+        <v>0.7397576607213523</v>
       </c>
       <c r="H9">
-        <v>1.005593605247668</v>
+        <v>0.4997950216916109</v>
       </c>
       <c r="I9">
-        <v>0.7819094259411017</v>
+        <v>0.4183300204500071</v>
       </c>
       <c r="J9">
-        <v>0.3761150330427512</v>
+        <v>0.546783254180653</v>
       </c>
       <c r="K9">
-        <v>0.6220283942263336</v>
+        <v>1.603812794986652</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.673151201582789</v>
+        <v>0.7266822701516009</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6095110244877731</v>
+        <v>1.621976146979819</v>
       </c>
       <c r="C10">
-        <v>0.124760056990624</v>
+        <v>0.3560769457209858</v>
       </c>
       <c r="D10">
-        <v>0.2889012784538068</v>
+        <v>0.4549929876684473</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.735935168443149</v>
+        <v>1.364414158787184</v>
       </c>
       <c r="G10">
-        <v>1.00493018747693</v>
+        <v>0.8160293472456743</v>
       </c>
       <c r="H10">
-        <v>1.001815293049859</v>
+        <v>0.5235235420194897</v>
       </c>
       <c r="I10">
-        <v>0.777729667884401</v>
+        <v>0.4355269664881547</v>
       </c>
       <c r="J10">
-        <v>0.398525646079861</v>
+        <v>0.6467436597174441</v>
       </c>
       <c r="K10">
-        <v>0.7073514779565073</v>
+        <v>1.915507778633582</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.644160155820639</v>
+        <v>0.6560527164545924</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6426471350439442</v>
+        <v>1.742795505626987</v>
       </c>
       <c r="C11">
-        <v>0.1319252756347282</v>
+        <v>0.383172479076876</v>
       </c>
       <c r="D11">
-        <v>0.2967501561597032</v>
+        <v>0.4876670854788188</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.744183025649988</v>
+        <v>1.429605960171187</v>
       </c>
       <c r="G11">
-        <v>1.008933703583025</v>
+        <v>0.8530888528314335</v>
       </c>
       <c r="H11">
-        <v>1.000566019539903</v>
+        <v>0.5355846474288199</v>
       </c>
       <c r="I11">
-        <v>0.7762539363432097</v>
+        <v>0.4446292119588335</v>
       </c>
       <c r="J11">
-        <v>0.4089447971371243</v>
+        <v>0.6933492445328824</v>
       </c>
       <c r="K11">
-        <v>0.7463395606418146</v>
+        <v>2.058891434108943</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.631582240852456</v>
+        <v>0.625518252276084</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6552156903179878</v>
+        <v>1.788752423780153</v>
       </c>
       <c r="C12">
-        <v>0.1346433537388805</v>
+        <v>0.3934983887669716</v>
       </c>
       <c r="D12">
-        <v>0.299739831242789</v>
+        <v>0.5001219031578046</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.747448144139881</v>
+        <v>1.454810482424975</v>
       </c>
       <c r="G12">
-        <v>1.010543378545066</v>
+        <v>0.8674965984476017</v>
       </c>
       <c r="H12">
-        <v>1.000160471472554</v>
+        <v>0.5403496019225145</v>
       </c>
       <c r="I12">
-        <v>0.7757564070041241</v>
+        <v>0.4482759120478192</v>
       </c>
       <c r="J12">
-        <v>0.4129226617303061</v>
+        <v>0.7111822102923639</v>
       </c>
       <c r="K12">
-        <v>0.7611281652625337</v>
+        <v>2.113454582825483</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.626907150874091</v>
+        <v>0.6141983169045524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6525079160300606</v>
+        <v>1.778845158689194</v>
       </c>
       <c r="C13">
-        <v>0.1340577552423667</v>
+        <v>0.39127145283598</v>
       </c>
       <c r="D13">
-        <v>0.2990951753124591</v>
+        <v>0.4974357300895917</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.746738632106826</v>
+        <v>1.449358410952755</v>
       </c>
       <c r="G13">
-        <v>1.010192538352698</v>
+        <v>0.8643764168464827</v>
       </c>
       <c r="H13">
-        <v>1.000244810134063</v>
+        <v>0.5393143312614939</v>
       </c>
       <c r="I13">
-        <v>0.7758608311778659</v>
+        <v>0.4474813727825406</v>
       </c>
       <c r="J13">
-        <v>0.4120645169627863</v>
+        <v>0.7073329963320845</v>
       </c>
       <c r="K13">
-        <v>0.7579420838221154</v>
+        <v>2.101690924460314</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.627910103810162</v>
+        <v>0.6166252434440125</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6436807465349546</v>
+        <v>1.746572119195605</v>
       </c>
       <c r="C14">
-        <v>0.132148798121932</v>
+        <v>0.3840206305592062</v>
       </c>
       <c r="D14">
-        <v>0.2969957687683973</v>
+        <v>0.488690051360777</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.74444880554374</v>
+        <v>1.431668888249419</v>
       </c>
       <c r="G14">
-        <v>1.009064254705777</v>
+        <v>0.8542664822257819</v>
       </c>
       <c r="H14">
-        <v>1.000531301492373</v>
+        <v>0.535972607965931</v>
       </c>
       <c r="I14">
-        <v>0.7762117752885871</v>
+        <v>0.4449251264721923</v>
       </c>
       <c r="J14">
-        <v>0.4092714094713727</v>
+        <v>0.6948125469865971</v>
       </c>
       <c r="K14">
-        <v>0.7475557359379934</v>
+        <v>2.063374799849811</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.631195856061504</v>
+        <v>0.6245820075046424</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6382765248334579</v>
+        <v>1.726831589763094</v>
       </c>
       <c r="C15">
-        <v>0.1309801269879927</v>
+        <v>0.3795881021583796</v>
       </c>
       <c r="D15">
-        <v>0.2957120950044896</v>
+        <v>0.4833440346340865</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.743064695797997</v>
+        <v>1.420902452011859</v>
       </c>
       <c r="G15">
-        <v>1.008385348632629</v>
+        <v>0.8481236429269785</v>
       </c>
       <c r="H15">
-        <v>1.000715579782337</v>
+        <v>0.5339519313312167</v>
       </c>
       <c r="I15">
-        <v>0.7764347241618168</v>
+        <v>0.4433858765028234</v>
       </c>
       <c r="J15">
-        <v>0.407564766927905</v>
+        <v>0.6871681002415215</v>
       </c>
       <c r="K15">
-        <v>0.7411969985524252</v>
+        <v>2.039941002653279</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.633219924699832</v>
+        <v>0.6294877921370556</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6073484106397871</v>
+        <v>1.614107392209661</v>
       </c>
       <c r="C16">
-        <v>0.1242924606056022</v>
+        <v>0.3543148185394784</v>
       </c>
       <c r="D16">
-        <v>0.2883907857753911</v>
+        <v>0.4528685589575048</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.735415991543292</v>
+        <v>1.360223510799131</v>
       </c>
       <c r="G16">
-        <v>1.004681637999596</v>
+        <v>0.8136578416343099</v>
       </c>
       <c r="H16">
-        <v>1.001906384478019</v>
+        <v>0.5227621091653987</v>
       </c>
       <c r="I16">
-        <v>0.7778346833615331</v>
+        <v>0.4349591870981158</v>
       </c>
       <c r="J16">
-        <v>0.3978492536252816</v>
+        <v>0.6437224722162966</v>
       </c>
       <c r="K16">
-        <v>0.7048069872792837</v>
+        <v>1.906172525853322</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.64499444389935</v>
+        <v>0.6580814376335731</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5884121925854231</v>
+        <v>1.545288294472982</v>
       </c>
       <c r="C17">
-        <v>0.1201982946547844</v>
+        <v>0.3389167996977562</v>
       </c>
       <c r="D17">
-        <v>0.2839306141597149</v>
+        <v>0.434307872928315</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.730976233691976</v>
+        <v>1.323869312465121</v>
       </c>
       <c r="G17">
-        <v>1.002576053803978</v>
+        <v>0.793142971599579</v>
       </c>
       <c r="H17">
-        <v>1.002757162339023</v>
+        <v>0.51623262440296</v>
       </c>
       <c r="I17">
-        <v>0.7788025978731454</v>
+        <v>0.4301282638763553</v>
       </c>
       <c r="J17">
-        <v>0.3919466467679342</v>
+        <v>0.6173749259419168</v>
       </c>
       <c r="K17">
-        <v>0.6825272335345289</v>
+        <v>1.82454365703498</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.652374129511765</v>
+        <v>0.6760404997742349</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5775343743756025</v>
+        <v>1.505818688940082</v>
       </c>
       <c r="C18">
-        <v>0.1178465666740465</v>
+        <v>0.3300963995164921</v>
       </c>
       <c r="D18">
-        <v>0.2813767392240436</v>
+        <v>0.4236787750569988</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.728515341108874</v>
+        <v>1.30326419134137</v>
       </c>
       <c r="G18">
-        <v>1.00142610032303</v>
+        <v>0.7815635758755803</v>
       </c>
       <c r="H18">
-        <v>1.003290698037816</v>
+        <v>0.512595281426286</v>
       </c>
       <c r="I18">
-        <v>0.7793993766120408</v>
+        <v>0.4274690287631913</v>
       </c>
       <c r="J18">
-        <v>0.3885727448638079</v>
+        <v>0.6023257737140142</v>
       </c>
       <c r="K18">
-        <v>0.6697289263527182</v>
+        <v>1.777740287440736</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.656676161223302</v>
+        <v>0.6865193672448324</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5738537134992612</v>
+        <v>1.492473569539357</v>
       </c>
       <c r="C19">
-        <v>0.1170508496016396</v>
+        <v>0.3271158994780876</v>
       </c>
       <c r="D19">
-        <v>0.2805140183353956</v>
+        <v>0.4200876489036034</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.727698048897707</v>
+        <v>1.29633862917575</v>
       </c>
       <c r="G19">
-        <v>1.001047236780579</v>
+        <v>0.7776798139587271</v>
       </c>
       <c r="H19">
-        <v>1.00347893354764</v>
+        <v>0.5113835965079261</v>
       </c>
       <c r="I19">
-        <v>0.7796083132836316</v>
+        <v>0.4265886975035187</v>
       </c>
       <c r="J19">
-        <v>0.3874340247659944</v>
+        <v>0.597247842326766</v>
       </c>
       <c r="K19">
-        <v>0.6653984709370206</v>
+        <v>1.761917681867089</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.658142615018644</v>
+        <v>0.6900925815441372</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5904265606893375</v>
+        <v>1.552602272680815</v>
       </c>
       <c r="C20">
-        <v>0.1206338019660222</v>
+        <v>0.3405521407406127</v>
       </c>
       <c r="D20">
-        <v>0.2844042176635071</v>
+        <v>0.4362788067582528</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.73143925437445</v>
+        <v>1.327707397042431</v>
       </c>
       <c r="G20">
-        <v>1.002793869190043</v>
+        <v>0.7953037836329599</v>
       </c>
       <c r="H20">
-        <v>1.002662021922944</v>
+        <v>0.5169153531995505</v>
       </c>
       <c r="I20">
-        <v>0.7786954150286505</v>
+        <v>0.4306300568705623</v>
       </c>
       <c r="J20">
-        <v>0.3925728027596591</v>
+        <v>0.6201686233570314</v>
       </c>
       <c r="K20">
-        <v>0.6848972549467192</v>
+        <v>1.833217669816236</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.65158260440851</v>
+        <v>0.6741131823734126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6462729435519634</v>
+        <v>1.756045677550077</v>
       </c>
       <c r="C21">
-        <v>0.1327093758707463</v>
+        <v>0.3861485191289091</v>
       </c>
       <c r="D21">
-        <v>0.2976119417413372</v>
+        <v>0.4912565656187553</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.745117532657247</v>
+        <v>1.436850279437039</v>
       </c>
       <c r="G21">
-        <v>1.009393116034573</v>
+        <v>0.8572255741128174</v>
       </c>
       <c r="H21">
-        <v>1.000445319339619</v>
+        <v>0.5369486582444409</v>
       </c>
       <c r="I21">
-        <v>0.7761070301719357</v>
+        <v>0.4456703999775229</v>
       </c>
       <c r="J21">
-        <v>0.4100909339969974</v>
+        <v>0.6984849200275249</v>
       </c>
       <c r="K21">
-        <v>0.750605791763121</v>
+        <v>2.074621613192761</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.630228364447747</v>
+        <v>0.6222382110702043</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6828918386190139</v>
+        <v>1.890219433537311</v>
       </c>
       <c r="C22">
-        <v>0.1406292317894895</v>
+        <v>0.416334632926862</v>
       </c>
       <c r="D22">
-        <v>0.3063457748612279</v>
+        <v>0.5276699348298735</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.754883861039957</v>
+        <v>1.511224534354838</v>
       </c>
       <c r="G22">
-        <v>1.014251961205588</v>
+        <v>0.8998937062930423</v>
       </c>
       <c r="H22">
-        <v>0.9993901677036519</v>
+        <v>0.551201940161377</v>
       </c>
       <c r="I22">
-        <v>0.7747727053041444</v>
+        <v>0.4566735261642521</v>
       </c>
       <c r="J22">
-        <v>0.421728692243093</v>
+        <v>0.7507555855331844</v>
       </c>
       <c r="K22">
-        <v>0.7936937014990519</v>
+        <v>2.233968567493918</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.616784511483242</v>
+        <v>0.5897572007273979</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.663336794231725</v>
+        <v>1.81848718715807</v>
       </c>
       <c r="C23">
-        <v>0.1363997186676045</v>
+        <v>0.4001851007922141</v>
       </c>
       <c r="D23">
-        <v>0.3016750743474859</v>
+        <v>0.5081878487692961</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.749595690546073</v>
+        <v>1.471234438417312</v>
       </c>
       <c r="G23">
-        <v>1.011608682379702</v>
+        <v>0.8769076481837601</v>
       </c>
       <c r="H23">
-        <v>0.9999173043271128</v>
+        <v>0.5434830549194629</v>
       </c>
       <c r="I23">
-        <v>0.7754521340335216</v>
+        <v>0.4506879766560772</v>
       </c>
       <c r="J23">
-        <v>0.4155001131662175</v>
+        <v>0.7227507331928535</v>
       </c>
       <c r="K23">
-        <v>0.7706838618740903</v>
+        <v>2.148764541607903</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.623912819387359</v>
+        <v>0.6069580648553128</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.589515837223729</v>
+        <v>1.549295328131223</v>
       </c>
       <c r="C24">
-        <v>0.1204369026862935</v>
+        <v>0.3398127036819005</v>
       </c>
       <c r="D24">
-        <v>0.2841900693153718</v>
+        <v>0.4353876184572698</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.731229637452302</v>
+        <v>1.325971282460728</v>
       </c>
       <c r="G24">
-        <v>1.002695206180732</v>
+        <v>0.7943262137797404</v>
       </c>
       <c r="H24">
-        <v>1.002704896559379</v>
+        <v>0.5166063296558718</v>
       </c>
       <c r="I24">
-        <v>0.7787437468268905</v>
+        <v>0.4304028295066615</v>
       </c>
       <c r="J24">
-        <v>0.3922896566396616</v>
+        <v>0.6189052878548296</v>
       </c>
       <c r="K24">
-        <v>0.683825735158365</v>
+        <v>1.829295758523472</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.651940268030682</v>
+        <v>0.6749840440092427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5104166856908137</v>
+        <v>1.263161399343289</v>
       </c>
       <c r="C25">
-        <v>0.1033379956220983</v>
+        <v>0.276041665327881</v>
       </c>
       <c r="D25">
-        <v>0.2657695021108566</v>
+        <v>0.3586060106503908</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.714963767172222</v>
+        <v>1.180776423442296</v>
       </c>
       <c r="G25">
-        <v>0.9954164263711931</v>
+        <v>0.7135521199793118</v>
       </c>
       <c r="H25">
-        <v>1.0074012122315</v>
+        <v>0.4920838438703612</v>
       </c>
       <c r="I25">
-        <v>0.7838254867748802</v>
+        <v>0.4130324110594898</v>
       </c>
       <c r="J25">
-        <v>0.3680604934990583</v>
+        <v>0.5108432341747005</v>
       </c>
       <c r="K25">
-        <v>0.5907640706604411</v>
+        <v>1.490203863649867</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684367678305129</v>
+        <v>0.7540237029106009</v>
       </c>
       <c r="O25">
         <v>0</v>
